--- a/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140418_P.xlsx
+++ b/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140418_P.xlsx
@@ -367,18 +367,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -651,12 +645,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1248,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3101,10 +3094,10 @@
       <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F52" t="str">
@@ -3138,10 +3131,10 @@
       <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F53" t="str">
@@ -3175,10 +3168,10 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F54" t="str">
@@ -3212,10 +3205,10 @@
       <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F55" t="str">
@@ -3249,10 +3242,10 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F56" t="str">
@@ -3286,10 +3279,10 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F57" t="str">
@@ -3323,10 +3316,10 @@
       <c r="C58" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F58" t="str">
@@ -3360,10 +3353,10 @@
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F59" t="str">
@@ -3397,10 +3390,10 @@
       <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F60" t="str">
@@ -3434,10 +3427,10 @@
       <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F61" t="str">
@@ -3471,10 +3464,10 @@
       <c r="C62" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F62" t="str">
@@ -3508,10 +3501,10 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F63" t="str">
@@ -3545,10 +3538,10 @@
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F64" t="str">
@@ -3582,10 +3575,10 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F65" t="str">
@@ -3619,10 +3612,10 @@
       <c r="C66" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F66" t="str">
@@ -3656,10 +3649,10 @@
       <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F67" t="str">
